--- a/asset_manager/file_manager/scripts/ce100_migration/ce100_insight_list_2017_12_05.xlsx
+++ b/asset_manager/file_manager/scripts/ce100_migration/ce100_insight_list_2017_12_05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="17160" yWindow="660" windowWidth="21200" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -561,9 +561,6 @@
         </t>
   </si>
   <si>
-    <t>http://s3-eu-west-1.amazonaws.com/s3-ce100-library/Case-Studies/Agency-of-Design-Case-Study.pdf</t>
-  </si>
-  <si>
     <t>2017-03-10T14:53:43.901072+00:00</t>
   </si>
   <si>
@@ -1694,6 +1691,9 @@
   </si>
   <si>
     <t>http://s3-eu-west-1.amazonaws.com/s3-ce100-library/Insights/Introductory-guide-to-funding-2015.pdf</t>
+  </si>
+  <si>
+    <t>http://s3-eu-west-1.amazonaws.com/s3-ce100-library/Case-Studies/agency-of-design-case-study.pdf</t>
   </si>
 </sst>
 </file>
@@ -2054,13 +2054,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3162,8 +3163,8 @@
       <c r="B43" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>171</v>
+      <c r="C43" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="D43" t="s">
         <v>52</v>
@@ -3172,7 +3173,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -3186,10 +3187,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
@@ -3198,7 +3199,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3212,10 +3213,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D45" t="s">
         <v>52</v>
@@ -3224,7 +3225,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -3238,10 +3239,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D46" t="s">
         <v>52</v>
@@ -3250,7 +3251,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -3264,19 +3265,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" t="s">
         <v>184</v>
-      </c>
-      <c r="F47" t="s">
-        <v>185</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -3290,19 +3291,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D48" t="s">
         <v>52</v>
       </c>
       <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" t="s">
         <v>188</v>
-      </c>
-      <c r="F48" t="s">
-        <v>189</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3316,19 +3317,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" t="s">
         <v>192</v>
-      </c>
-      <c r="F49" t="s">
-        <v>193</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3342,19 +3343,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" t="s">
         <v>196</v>
-      </c>
-      <c r="F50" t="s">
-        <v>197</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3368,19 +3369,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3394,19 +3395,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
         <v>203</v>
-      </c>
-      <c r="F52" t="s">
-        <v>204</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3420,19 +3421,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" t="s">
         <v>207</v>
-      </c>
-      <c r="F53" t="s">
-        <v>208</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3446,19 +3447,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
         <v>211</v>
-      </c>
-      <c r="F54" t="s">
-        <v>212</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3472,19 +3473,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" t="s">
         <v>215</v>
-      </c>
-      <c r="F55" t="s">
-        <v>216</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -3498,19 +3499,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
       <c r="E56" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" t="s">
         <v>219</v>
-      </c>
-      <c r="F56" t="s">
-        <v>220</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -3524,10 +3525,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D57" t="s">
         <v>103</v>
@@ -3536,7 +3537,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3550,19 +3551,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" t="s">
         <v>226</v>
-      </c>
-      <c r="F58" t="s">
-        <v>227</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3576,10 +3577,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
@@ -3588,7 +3589,7 @@
         <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3602,10 +3603,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D60" t="s">
         <v>52</v>
@@ -3614,7 +3615,7 @@
         <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3628,10 +3629,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D61" t="s">
         <v>52</v>
@@ -3640,7 +3641,7 @@
         <v>168</v>
       </c>
       <c r="F61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -3654,19 +3655,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" t="s">
         <v>239</v>
-      </c>
-      <c r="F62" t="s">
-        <v>240</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -3680,10 +3681,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -3692,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3706,10 +3707,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -3718,7 +3719,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -3732,19 +3733,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" t="s">
         <v>249</v>
-      </c>
-      <c r="F65" t="s">
-        <v>250</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3758,19 +3759,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" t="s">
         <v>253</v>
-      </c>
-      <c r="F66" t="s">
-        <v>254</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -3784,19 +3785,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" t="s">
         <v>257</v>
-      </c>
-      <c r="F67" t="s">
-        <v>258</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -3810,19 +3811,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
       </c>
       <c r="E68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" t="s">
         <v>261</v>
-      </c>
-      <c r="F68" t="s">
-        <v>262</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -3836,19 +3837,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" t="s">
         <v>265</v>
-      </c>
-      <c r="F69" t="s">
-        <v>266</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3862,10 +3863,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D70" t="s">
         <v>52</v>
@@ -3874,7 +3875,7 @@
         <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3888,19 +3889,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" t="s">
         <v>272</v>
-      </c>
-      <c r="F71" t="s">
-        <v>273</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3914,19 +3915,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="s">
+        <v>275</v>
+      </c>
+      <c r="F72" t="s">
         <v>276</v>
-      </c>
-      <c r="F72" t="s">
-        <v>277</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3940,19 +3941,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
+        <v>279</v>
+      </c>
+      <c r="F73" t="s">
         <v>280</v>
-      </c>
-      <c r="F73" t="s">
-        <v>281</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -3966,10 +3967,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D74" t="s">
         <v>52</v>
@@ -3978,7 +3979,7 @@
         <v>168</v>
       </c>
       <c r="F74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3992,19 +3993,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" t="s">
         <v>286</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>287</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>288</v>
-      </c>
-      <c r="F75" t="s">
-        <v>289</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -4018,19 +4019,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" t="s">
         <v>291</v>
       </c>
-      <c r="D76" t="s">
-        <v>287</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
-      </c>
-      <c r="F76" t="s">
-        <v>293</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -4044,19 +4045,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" t="s">
         <v>295</v>
       </c>
-      <c r="D77" t="s">
-        <v>287</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>296</v>
-      </c>
-      <c r="F77" t="s">
-        <v>297</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -4070,19 +4071,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" t="s">
         <v>299</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>300</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>301</v>
-      </c>
-      <c r="F78" t="s">
-        <v>302</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -4096,10 +4097,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="D79" t="s">
         <v>52</v>
@@ -4108,7 +4109,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -4122,10 +4123,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D80" t="s">
         <v>52</v>
@@ -4134,7 +4135,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -4148,19 +4149,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" t="s">
         <v>310</v>
       </c>
-      <c r="D81" t="s">
-        <v>287</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>311</v>
-      </c>
-      <c r="F81" t="s">
-        <v>312</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -4174,10 +4175,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D82" t="s">
         <v>52</v>
@@ -4186,7 +4187,7 @@
         <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -4200,10 +4201,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D83" t="s">
         <v>52</v>
@@ -4212,7 +4213,7 @@
         <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -4226,10 +4227,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D84" t="s">
         <v>52</v>
@@ -4238,7 +4239,7 @@
         <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -4252,19 +4253,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" t="s">
+        <v>286</v>
+      </c>
+      <c r="E85" t="s">
+        <v>310</v>
+      </c>
+      <c r="F85" t="s">
         <v>323</v>
-      </c>
-      <c r="D85" t="s">
-        <v>287</v>
-      </c>
-      <c r="E85" t="s">
-        <v>311</v>
-      </c>
-      <c r="F85" t="s">
-        <v>324</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -4278,10 +4279,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="D86" t="s">
         <v>52</v>
@@ -4290,7 +4291,7 @@
         <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4304,10 +4305,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D87" t="s">
         <v>52</v>
@@ -4316,7 +4317,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -4330,10 +4331,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D88" t="s">
         <v>52</v>
@@ -4342,7 +4343,7 @@
         <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -4356,10 +4357,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D89" t="s">
         <v>52</v>
@@ -4368,7 +4369,7 @@
         <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4382,10 +4383,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>336</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D90" t="s">
         <v>52</v>
@@ -4394,7 +4395,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4408,10 +4409,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>339</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D91" t="s">
         <v>52</v>
@@ -4420,7 +4421,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4434,10 +4435,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D92" t="s">
         <v>52</v>
@@ -4446,7 +4447,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4460,19 +4461,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>345</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" t="s">
         <v>347</v>
       </c>
-      <c r="D93" t="s">
-        <v>287</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>348</v>
-      </c>
-      <c r="F93" t="s">
-        <v>349</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4486,10 +4487,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D94" t="s">
         <v>52</v>
@@ -4498,7 +4499,7 @@
         <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4512,10 +4513,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D95" t="s">
         <v>52</v>
@@ -4524,7 +4525,7 @@
         <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4538,10 +4539,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D96" t="s">
         <v>52</v>
@@ -4550,7 +4551,7 @@
         <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -4564,10 +4565,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>358</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D97" t="s">
         <v>52</v>
@@ -4576,7 +4577,7 @@
         <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -4590,19 +4591,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" t="s">
+        <v>310</v>
+      </c>
+      <c r="F98" t="s">
         <v>363</v>
-      </c>
-      <c r="D98" t="s">
-        <v>287</v>
-      </c>
-      <c r="E98" t="s">
-        <v>311</v>
-      </c>
-      <c r="F98" t="s">
-        <v>364</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -4616,19 +4617,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>364</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" t="s">
+        <v>310</v>
+      </c>
+      <c r="F99" t="s">
         <v>366</v>
-      </c>
-      <c r="D99" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" t="s">
-        <v>311</v>
-      </c>
-      <c r="F99" t="s">
-        <v>367</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -4642,10 +4643,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>367</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D100" t="s">
         <v>52</v>
@@ -4654,7 +4655,7 @@
         <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -4668,10 +4669,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D101" t="s">
         <v>52</v>
@@ -4680,7 +4681,7 @@
         <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -4694,10 +4695,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="D102" t="s">
         <v>52</v>
@@ -4706,7 +4707,7 @@
         <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -4720,10 +4721,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D103" t="s">
         <v>52</v>
@@ -4732,7 +4733,7 @@
         <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -4746,10 +4747,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>379</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D104" t="s">
         <v>52</v>
@@ -4758,7 +4759,7 @@
         <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
@@ -4772,19 +4773,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" t="s">
+        <v>310</v>
+      </c>
+      <c r="F105" t="s">
         <v>384</v>
-      </c>
-      <c r="D105" t="s">
-        <v>300</v>
-      </c>
-      <c r="E105" t="s">
-        <v>311</v>
-      </c>
-      <c r="F105" t="s">
-        <v>385</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
@@ -4798,10 +4799,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>385</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="D106" t="s">
         <v>52</v>
@@ -4810,7 +4811,7 @@
         <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -4824,10 +4825,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>388</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D107" t="s">
         <v>52</v>
@@ -4836,7 +4837,7 @@
         <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -4850,10 +4851,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>391</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D108" t="s">
         <v>52</v>
@@ -4862,7 +4863,7 @@
         <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -4876,10 +4877,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>391</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D109" t="s">
         <v>52</v>
@@ -4888,7 +4889,7 @@
         <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -4902,10 +4903,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>395</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="D110" t="s">
         <v>52</v>
@@ -4914,7 +4915,7 @@
         <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -4928,10 +4929,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>398</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D111" t="s">
         <v>52</v>
@@ -4940,7 +4941,7 @@
         <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -4954,10 +4955,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>401</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D112" t="s">
         <v>52</v>
@@ -4966,7 +4967,7 @@
         <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -4980,19 +4981,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>404</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" t="s">
+        <v>299</v>
+      </c>
+      <c r="E113" t="s">
+        <v>310</v>
+      </c>
+      <c r="F113" t="s">
         <v>406</v>
-      </c>
-      <c r="D113" t="s">
-        <v>300</v>
-      </c>
-      <c r="E113" t="s">
-        <v>311</v>
-      </c>
-      <c r="F113" t="s">
-        <v>407</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -5006,10 +5007,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D114" t="s">
         <v>52</v>
@@ -5018,7 +5019,7 @@
         <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -5032,10 +5033,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>410</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D115" t="s">
         <v>52</v>
@@ -5044,7 +5045,7 @@
         <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -5058,10 +5059,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D116" t="s">
         <v>52</v>
@@ -5070,7 +5071,7 @@
         <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -5084,10 +5085,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="D117" t="s">
         <v>52</v>
@@ -5096,7 +5097,7 @@
         <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -5110,10 +5111,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>419</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="D118" t="s">
         <v>52</v>
@@ -5122,7 +5123,7 @@
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -5136,19 +5137,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>422</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" t="s">
+        <v>310</v>
+      </c>
+      <c r="F119" t="s">
         <v>424</v>
-      </c>
-      <c r="D119" t="s">
-        <v>287</v>
-      </c>
-      <c r="E119" t="s">
-        <v>311</v>
-      </c>
-      <c r="F119" t="s">
-        <v>425</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -5162,19 +5163,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" t="s">
+        <v>310</v>
+      </c>
+      <c r="F120" t="s">
         <v>427</v>
-      </c>
-      <c r="D120" t="s">
-        <v>287</v>
-      </c>
-      <c r="E120" t="s">
-        <v>311</v>
-      </c>
-      <c r="F120" t="s">
-        <v>428</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
@@ -5188,10 +5189,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>428</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="D121" t="s">
         <v>52</v>
@@ -5200,7 +5201,7 @@
         <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -5214,19 +5215,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>431</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" t="s">
+        <v>286</v>
+      </c>
+      <c r="E122" t="s">
+        <v>310</v>
+      </c>
+      <c r="F122" t="s">
         <v>433</v>
-      </c>
-      <c r="D122" t="s">
-        <v>287</v>
-      </c>
-      <c r="E122" t="s">
-        <v>311</v>
-      </c>
-      <c r="F122" t="s">
-        <v>434</v>
       </c>
       <c r="G122" t="b">
         <v>0</v>
@@ -5240,10 +5241,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>434</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="D123" t="s">
         <v>52</v>
@@ -5252,7 +5253,7 @@
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -5266,19 +5267,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>437</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" t="s">
+        <v>299</v>
+      </c>
+      <c r="E124" t="s">
+        <v>310</v>
+      </c>
+      <c r="F124" t="s">
         <v>439</v>
-      </c>
-      <c r="D124" t="s">
-        <v>300</v>
-      </c>
-      <c r="E124" t="s">
-        <v>311</v>
-      </c>
-      <c r="F124" t="s">
-        <v>440</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
@@ -5292,10 +5293,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>440</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="D125" t="s">
         <v>52</v>
@@ -5304,7 +5305,7 @@
         <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -5318,19 +5319,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>443</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" t="s">
+        <v>286</v>
+      </c>
+      <c r="E126" t="s">
         <v>445</v>
       </c>
-      <c r="D126" t="s">
-        <v>287</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>446</v>
-      </c>
-      <c r="F126" t="s">
-        <v>447</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -5344,10 +5345,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>447</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="D127" t="s">
         <v>52</v>
@@ -5356,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
@@ -5370,10 +5371,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>450</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D128" t="s">
         <v>52</v>
@@ -5382,7 +5383,7 @@
         <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -5396,19 +5397,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>453</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129" t="s">
+        <v>445</v>
+      </c>
+      <c r="F129" t="s">
         <v>455</v>
-      </c>
-      <c r="D129" t="s">
-        <v>287</v>
-      </c>
-      <c r="E129" t="s">
-        <v>446</v>
-      </c>
-      <c r="F129" t="s">
-        <v>456</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -5422,10 +5423,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>456</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="D130" t="s">
         <v>52</v>
@@ -5434,7 +5435,7 @@
         <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -5448,19 +5449,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>459</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" t="s">
+        <v>286</v>
+      </c>
+      <c r="E131" t="s">
+        <v>310</v>
+      </c>
+      <c r="F131" t="s">
         <v>461</v>
-      </c>
-      <c r="D131" t="s">
-        <v>287</v>
-      </c>
-      <c r="E131" t="s">
-        <v>311</v>
-      </c>
-      <c r="F131" t="s">
-        <v>462</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -5474,10 +5475,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>462</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="D132" t="s">
         <v>52</v>
@@ -5486,7 +5487,7 @@
         <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -5500,10 +5501,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>465</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="D133" t="s">
         <v>52</v>
@@ -5512,7 +5513,7 @@
         <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -5526,19 +5527,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>468</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" t="s">
+        <v>286</v>
+      </c>
+      <c r="E134" t="s">
+        <v>310</v>
+      </c>
+      <c r="F134" t="s">
         <v>470</v>
-      </c>
-      <c r="D134" t="s">
-        <v>287</v>
-      </c>
-      <c r="E134" t="s">
-        <v>311</v>
-      </c>
-      <c r="F134" t="s">
-        <v>471</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -5552,10 +5553,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>471</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="D135" t="s">
         <v>52</v>
@@ -5564,7 +5565,7 @@
         <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -5578,10 +5579,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>474</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="D136" t="s">
         <v>52</v>
@@ -5590,7 +5591,7 @@
         <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -5604,19 +5605,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>477</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" t="s">
         <v>479</v>
-      </c>
-      <c r="D137" t="s">
-        <v>480</v>
       </c>
       <c r="E137" t="s">
         <v>168</v>
       </c>
       <c r="F137" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
@@ -5630,19 +5631,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>481</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="D138" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E138" t="s">
         <v>168</v>
       </c>
       <c r="F138" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
@@ -5656,19 +5657,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>484</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="D139" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E139" t="s">
         <v>168</v>
       </c>
       <c r="F139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -5682,19 +5683,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>487</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="D140" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E140" t="s">
         <v>168</v>
       </c>
       <c r="F140" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -5708,19 +5709,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>490</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="D141" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E141" t="s">
         <v>168</v>
       </c>
       <c r="F141" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -5734,19 +5735,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>493</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="D142" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E142" t="s">
         <v>168</v>
       </c>
       <c r="F142" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -5760,19 +5761,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>496</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="D143" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E143" t="s">
         <v>168</v>
       </c>
       <c r="F143" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -5786,19 +5787,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>499</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="D144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E144" t="s">
         <v>168</v>
       </c>
       <c r="F144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
@@ -5812,19 +5813,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>502</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="D145" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E145" t="s">
         <v>168</v>
       </c>
       <c r="F145" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -5838,19 +5839,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>505</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="D146" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E146" t="s">
         <v>168</v>
       </c>
       <c r="F146" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -5864,19 +5865,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>508</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D147" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E147" t="s">
         <v>168</v>
       </c>
       <c r="F147" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -5890,19 +5891,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>511</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="D148" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E148" t="s">
         <v>168</v>
       </c>
       <c r="F148" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -5916,19 +5917,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>514</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="D149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E149" t="s">
         <v>168</v>
       </c>
       <c r="F149" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -5942,19 +5943,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>517</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="D150" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E150" t="s">
         <v>168</v>
       </c>
       <c r="F150" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -5968,19 +5969,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>520</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D151" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E151" t="s">
         <v>168</v>
       </c>
       <c r="F151" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -5994,19 +5995,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>523</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="D152" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E152" t="s">
         <v>168</v>
       </c>
       <c r="F152" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -6020,19 +6021,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E153" t="s">
         <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G153" t="b">
         <v>0</v>
@@ -6046,19 +6047,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>528</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="D154" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E154" t="s">
         <v>168</v>
       </c>
       <c r="F154" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -6072,19 +6073,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>531</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="D155" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E155" t="s">
         <v>168</v>
       </c>
       <c r="F155" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -6098,19 +6099,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>534</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="D156" t="s">
         <v>52</v>
       </c>
       <c r="E156" t="s">
+        <v>536</v>
+      </c>
+      <c r="F156" t="s">
         <v>537</v>
-      </c>
-      <c r="F156" t="s">
-        <v>538</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
@@ -6124,19 +6125,19 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>538</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="D157" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E157" t="s">
         <v>168</v>
       </c>
       <c r="F157" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -6150,19 +6151,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>541</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="D158" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E158" t="s">
         <v>168</v>
       </c>
       <c r="F158" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
